--- a/PS-1/Project2.xlsx
+++ b/PS-1/Project2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15840" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="0NF" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="2NF" sheetId="3" r:id="rId3"/>
     <sheet name="3NF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
   <si>
     <t>Assumptions</t>
   </si>
@@ -117,32 +117,59 @@
     <t>Sale No</t>
   </si>
   <si>
-    <t>Salesperson</t>
-  </si>
-  <si>
-    <t>We invented a Sale Number key to uniquely identify each car sold by a salesperson. A VIN number uniquely identifes a vehicle but for security reasons this will not be used as the PK. Each sale number is unique for each saleperson.</t>
-  </si>
-  <si>
     <t>The combination of the Saleperson ID and Sale Number uniquely identifies each row.</t>
   </si>
   <si>
-    <t>Salesperson ID -&gt; First Name, Last Name, Commission</t>
-  </si>
-  <si>
     <t>RRP Price</t>
   </si>
   <si>
-    <t>We invented a Car Number key to avoid having to type the full make, model, year, and RRP price for each vehicle that is sold by a salesperson.</t>
-  </si>
-  <si>
-    <t>Case Number -&gt; Make, Model, Year, RRP Price</t>
+    <t>{ Salesperson ID } -&gt; { First Name, Last Name, Commission }</t>
+  </si>
+  <si>
+    <t>{ Car Number } -&gt; { Make, Model, Year, RRP Price }</t>
+  </si>
+  <si>
+    <t>The VIN number uniquely identifies a car but is confidential.</t>
+  </si>
+  <si>
+    <t>I invented the Car Number key to avoid having to type the full make, model, year, and RRP price for each vehicle that is sold by a salesperson.</t>
+  </si>
+  <si>
+    <t>The RRP for a car is set based on the Make/Model/Year of the car.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I invented the Sale Number key to uniquely identify each car sold. </t>
+  </si>
+  <si>
+    <t>Foreign Keys</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Transactions { Salesperson } -&gt; Employees { Salesperson }</t>
+  </si>
+  <si>
+    <t>Transactions { Sale No } -&gt; Sales { Sale No }</t>
+  </si>
+  <si>
+    <t>Transactions { Car No }  -&gt; Cars { Car No }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,20 +201,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF76933C"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF76933C"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +258,20 @@
         <bgColor rgb="FFEBF1DE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -229,6 +299,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9BBB59"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9BBB59"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9BBB59"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -377,30 +491,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -549,7 +690,263 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="34">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BBB59"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BBB59"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BBB59"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BBB59"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BBB59"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BBB59"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BBB59"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BBB59"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -562,7 +959,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -579,7 +976,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -592,6 +989,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -604,6 +1002,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -616,6 +1015,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -632,11 +1032,89 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -650,100 +1128,123 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:K6" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <tableColumns count="11">
-    <tableColumn id="1" name="Salesperson ID" dataDxfId="10"/>
-    <tableColumn id="2" name="First Name" dataDxfId="9"/>
-    <tableColumn id="3" name="Last Name" dataDxfId="8"/>
-    <tableColumn id="4" name="Commission" dataDxfId="7"/>
-    <tableColumn id="5" name="VIN" dataDxfId="6"/>
-    <tableColumn id="6" name="Make" dataDxfId="5"/>
-    <tableColumn id="7" name="Model" dataDxfId="4"/>
-    <tableColumn id="8" name="Year" dataDxfId="3"/>
-    <tableColumn id="9" name="Price" dataDxfId="2"/>
-    <tableColumn id="10" name="Date Sold" dataDxfId="1"/>
-    <tableColumn id="11" name="Price Sold" dataDxfId="0"/>
+    <tableColumn id="1" name="Salesperson ID" dataDxfId="31"/>
+    <tableColumn id="2" name="First Name" dataDxfId="30"/>
+    <tableColumn id="3" name="Last Name" dataDxfId="29"/>
+    <tableColumn id="4" name="Commission" dataDxfId="28"/>
+    <tableColumn id="5" name="VIN" dataDxfId="27"/>
+    <tableColumn id="6" name="Make" dataDxfId="26"/>
+    <tableColumn id="7" name="Model" dataDxfId="25"/>
+    <tableColumn id="8" name="Year" dataDxfId="24"/>
+    <tableColumn id="9" name="Price" dataDxfId="23"/>
+    <tableColumn id="10" name="Date Sold" dataDxfId="22"/>
+    <tableColumn id="11" name="Price Sold" dataDxfId="21"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:M6" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <tableColumns count="13">
+    <tableColumn id="14" name="Sale No"/>
+    <tableColumn id="1" name="Salesperson ID"/>
+    <tableColumn id="3" name="First Name"/>
+    <tableColumn id="4" name="Last Name"/>
+    <tableColumn id="5" name="Commission"/>
+    <tableColumn id="6" name="VIN"/>
+    <tableColumn id="7" name="Car No"/>
+    <tableColumn id="8" name="Make"/>
+    <tableColumn id="9" name="Model"/>
+    <tableColumn id="10" name="Year"/>
+    <tableColumn id="11" name="RRP Price"/>
+    <tableColumn id="12" name="Date Sold"/>
+    <tableColumn id="13" name="Price Sold"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A2:G6" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <tableColumns count="7">
+    <tableColumn id="1" name="Salesperson ID"/>
+    <tableColumn id="2" name="Sale No"/>
+    <tableColumn id="7" name="Car No"/>
+    <tableColumn id="8" name="Make"/>
+    <tableColumn id="9" name="Model"/>
+    <tableColumn id="10" name="Year"/>
+    <tableColumn id="11" name="RRP Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A8:D10" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Salesperson ID"/>
+    <tableColumn id="2" name="First Name"/>
+    <tableColumn id="3" name="Last Name"/>
+    <tableColumn id="4" name="Commission"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table246" displayName="Table246" ref="A2:C6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Salesperson ID"/>
+    <tableColumn id="2" name="Sale No"/>
+    <tableColumn id="7" name="Car No"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="A8:D10" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Salesperson ID"/>
+    <tableColumn id="2" name="First Name"/>
+    <tableColumn id="3" name="Last Name"/>
+    <tableColumn id="4" name="Commission"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A12:D16" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Sale No"/>
+    <tableColumn id="2" name="VIN"/>
+    <tableColumn id="3" name="Date Sold"/>
+    <tableColumn id="4" name="Price Sold"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A18:E22" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Car No"/>
+    <tableColumn id="2" name="Make"/>
+    <tableColumn id="3" name="Model"/>
+    <tableColumn id="4" name="Year"/>
+    <tableColumn id="5" name="RRP Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1069,205 +1570,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="3" spans="1:11">
+      <c r="A3" s="16">
         <v>2134</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D3" s="17">
         <v>0.05</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H3" s="16">
         <v>2009</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I3" s="19">
         <v>32000</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J3" s="20">
         <v>41133</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K3" s="19">
         <v>28500</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
-        <v>2134</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="1">
         <v>2008</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="23">
         <v>14000</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J4" s="24">
         <v>41143</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="23">
         <v>12800</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+    <row r="5" spans="1:11">
+      <c r="A5" s="16">
         <v>2165</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="17">
         <v>0.03</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="16">
         <v>2009</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I5" s="19">
         <v>10000</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J5" s="20">
         <v>41139</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K5" s="19">
         <v>8500</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
-        <v>2165</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="1">
         <v>2005</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I6" s="23">
         <v>16000</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J6" s="24">
         <v>41150</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K6" s="23">
         <v>14500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1281,269 +1769,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="8">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
         <v>2134</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2009</v>
+      </c>
+      <c r="K3" s="6">
+        <v>32000</v>
+      </c>
+      <c r="L3" s="7">
+        <v>41133</v>
+      </c>
+      <c r="M3" s="6">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2134</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E4" s="9">
         <v>0.05</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K4" s="11">
+        <v>14000</v>
+      </c>
+      <c r="L4" s="12">
+        <v>41143</v>
+      </c>
+      <c r="M4" s="11">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2165</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3">
         <v>2009</v>
       </c>
-      <c r="K3" s="11">
-        <v>32000</v>
-      </c>
-      <c r="L3" s="12">
-        <v>41133</v>
-      </c>
-      <c r="M3" s="11">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="13">
-        <v>2134</v>
-      </c>
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="K5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="L5" s="7">
+        <v>41139</v>
+      </c>
+      <c r="M5" s="6">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="13">
-        <v>2</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="13">
-        <v>2008</v>
-      </c>
-      <c r="K4" s="16">
-        <v>14000</v>
-      </c>
-      <c r="L4" s="17">
-        <v>41143</v>
-      </c>
-      <c r="M4" s="16">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="8">
+      <c r="B6" s="25">
         <v>2165</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="26">
         <v>0.03</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8">
-        <v>3</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="8">
-        <v>2009</v>
-      </c>
-      <c r="K5" s="11">
-        <v>10000</v>
-      </c>
-      <c r="L5" s="12">
-        <v>41139</v>
-      </c>
-      <c r="M5" s="11">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0.03</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="25">
         <v>4</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="25">
         <v>2005</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="28">
         <v>16000</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="29">
         <v>41150</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="28">
         <v>14500</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1554,310 +2062,271 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2134</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2009</v>
+      </c>
+      <c r="G3" s="6">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>2134</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2008</v>
+      </c>
+      <c r="G4" s="11">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>2165</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2009</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="25">
+        <v>2165</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="25">
+        <v>2005</v>
+      </c>
+      <c r="G6" s="28">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D8" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="8">
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
         <v>2134</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D9" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="18">
+    <row r="10" spans="1:7">
+      <c r="A10" s="25">
         <v>2165</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D10" s="26">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
         <v>1</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2009</v>
-      </c>
-      <c r="E8" s="11">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+      <c r="B13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="38">
+        <v>41133</v>
+      </c>
+      <c r="D13" s="39">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="36">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2008</v>
-      </c>
-      <c r="E9" s="16">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
+      <c r="B14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="40">
+        <v>41143</v>
+      </c>
+      <c r="D14" s="41">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2009</v>
-      </c>
-      <c r="E10" s="11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
+      <c r="B15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="38">
+        <v>41139</v>
+      </c>
+      <c r="D15" s="39">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="18">
-        <v>2005</v>
-      </c>
-      <c r="E11" s="21">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8">
-        <v>2134</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="8">
-        <v>2009</v>
-      </c>
-      <c r="G14" s="11">
-        <v>32000</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="12">
-        <v>41133</v>
-      </c>
-      <c r="J14" s="11">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8">
-        <v>2134</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="13">
-        <v>2008</v>
-      </c>
-      <c r="G15" s="16">
-        <v>14000</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="17">
-        <v>41143</v>
-      </c>
-      <c r="J15" s="16">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2009</v>
-      </c>
-      <c r="G16" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="12">
-        <v>41139</v>
-      </c>
-      <c r="J16" s="11">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B17" s="18">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="18">
-        <v>2005</v>
-      </c>
-      <c r="G17" s="21">
-        <v>16000</v>
-      </c>
-      <c r="H17" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="22">
+      <c r="C16" s="14">
         <v>41150</v>
       </c>
-      <c r="J17" s="21">
+      <c r="D16" s="42">
         <v>14500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1868,249 +2337,328 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>2134</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8">
+        <v>2134</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>2165</v>
+      </c>
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="25">
+        <v>2165</v>
+      </c>
+      <c r="B6" s="25">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D8" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8">
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
         <v>2134</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D9" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18">
+    <row r="10" spans="1:4">
+      <c r="A10" s="25">
         <v>2165</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D10" s="26">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="35">
+        <v>1</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="38">
+        <v>41133</v>
+      </c>
+      <c r="D13" s="45">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="36">
+        <v>2</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="40">
+        <v>41143</v>
+      </c>
+      <c r="D14" s="46">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="38">
+        <v>41139</v>
+      </c>
+      <c r="D15" s="45">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="25">
+        <v>4</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="29">
+        <v>41150</v>
+      </c>
+      <c r="D16" s="28">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B18" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C18" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D18" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="E18" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="35">
         <v>1</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D19" s="35">
         <v>2009</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E19" s="45">
         <v>32000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+    <row r="20" spans="1:5">
+      <c r="A20" s="36">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B20" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D20" s="36">
         <v>2008</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E20" s="46">
         <v>14000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="21" spans="1:5">
+      <c r="A21" s="35">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B21" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C21" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D21" s="35">
         <v>2009</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E21" s="45">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    <row r="22" spans="1:5">
+      <c r="A22" s="25">
         <v>4</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D22" s="25">
         <v>2005</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E22" s="28">
         <v>16000</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8">
-        <v>2134</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="12">
-        <v>41133</v>
-      </c>
-      <c r="F14" s="11">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8">
-        <v>2134</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="17">
-        <v>41143</v>
-      </c>
-      <c r="F15" s="16">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="12">
-        <v>41139</v>
-      </c>
-      <c r="F16" s="11">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B17" s="18">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="22">
-        <v>41150</v>
-      </c>
-      <c r="F17" s="21">
-        <v>14500</v>
+    <row r="24" spans="1:5">
+      <c r="A24" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
